--- a/src/predicciones/holt_winters/producto_37.xlsx
+++ b/src/predicciones/holt_winters/producto_37.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2651 +404,2651 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>3.000116357988168</v>
+        <v>2.091373460515502</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.999968399423227</v>
+        <v>1.616916468389835</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44934</v>
       </c>
       <c r="B4">
-        <v>0.9999738266028109</v>
+        <v>1.410807651014711</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44935</v>
       </c>
       <c r="B5">
-        <v>0.9999613550633608</v>
+        <v>1.336106939154121</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44937</v>
       </c>
       <c r="B6">
-        <v>0.9999278643609379</v>
+        <v>1.469834761946049</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44938</v>
       </c>
       <c r="B7">
-        <v>0.999894393779597</v>
+        <v>1.330248624764861</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44939</v>
       </c>
       <c r="B8">
-        <v>2.000185220343478</v>
+        <v>1.576430351996143</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44940</v>
       </c>
       <c r="B9">
-        <v>3.000091761629866</v>
+        <v>2.082523409589182</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44942</v>
       </c>
       <c r="B10">
-        <v>1.999943803064925</v>
+        <v>1.608066417463515</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44943</v>
       </c>
       <c r="B11">
-        <v>0.9999492302445085</v>
+        <v>1.401957600088392</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44945</v>
       </c>
       <c r="B12">
-        <v>0.9999367587050583</v>
+        <v>1.327256888227801</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44950</v>
       </c>
       <c r="B13">
-        <v>0.9999032680026356</v>
+        <v>1.460984711019729</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44953</v>
       </c>
       <c r="B14">
-        <v>0.9998697974212947</v>
+        <v>1.321398573838541</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44956</v>
       </c>
       <c r="B15">
-        <v>2.000160623985176</v>
+        <v>1.567580301069823</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44959</v>
       </c>
       <c r="B16">
-        <v>3.000067165271564</v>
+        <v>2.073673358662862</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44960</v>
       </c>
       <c r="B17">
-        <v>1.999919206706623</v>
+        <v>1.599216366537195</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44961</v>
       </c>
       <c r="B18">
-        <v>0.999924633886206</v>
+        <v>1.393107549162072</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44962</v>
       </c>
       <c r="B19">
-        <v>0.999912162346756</v>
+        <v>1.318406837301481</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44964</v>
       </c>
       <c r="B20">
-        <v>0.9998786716443331</v>
+        <v>1.452134660093409</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44968</v>
       </c>
       <c r="B21">
-        <v>0.9998452010629921</v>
+        <v>1.312548522912222</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44969</v>
       </c>
       <c r="B22">
-        <v>2.000136027626873</v>
+        <v>1.558730250143503</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44970</v>
       </c>
       <c r="B23">
-        <v>3.000042568913261</v>
+        <v>2.064823307736543</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44971</v>
       </c>
       <c r="B24">
-        <v>1.99989461034832</v>
+        <v>1.590366315610875</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44972</v>
       </c>
       <c r="B25">
-        <v>0.9999000375279037</v>
+        <v>1.384257498235752</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44974</v>
       </c>
       <c r="B26">
-        <v>0.9998875659884534</v>
+        <v>1.309556786375161</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44977</v>
       </c>
       <c r="B27">
-        <v>0.9998540752860308</v>
+        <v>1.443284609167089</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44979</v>
       </c>
       <c r="B28">
-        <v>0.9998206047046898</v>
+        <v>1.303698471985902</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44980</v>
       </c>
       <c r="B29">
-        <v>2.000111431268571</v>
+        <v>1.549880199217184</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44981</v>
       </c>
       <c r="B30">
-        <v>3.000017972554959</v>
+        <v>2.055973256810223</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44986</v>
       </c>
       <c r="B31">
-        <v>1.999870013990018</v>
+        <v>1.581516264684556</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44989</v>
       </c>
       <c r="B32">
-        <v>0.9998754411696011</v>
+        <v>1.375407447309432</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44992</v>
       </c>
       <c r="B33">
-        <v>0.9998629696301511</v>
+        <v>1.300706735448841</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44993</v>
       </c>
       <c r="B34">
-        <v>0.9998294789277284</v>
+        <v>1.43443455824077</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44996</v>
       </c>
       <c r="B35">
-        <v>0.9997960083463873</v>
+        <v>1.294848421059582</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44998</v>
       </c>
       <c r="B36">
-        <v>2.000086834910269</v>
+        <v>1.541030148290864</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44999</v>
       </c>
       <c r="B37">
-        <v>2.999993376196656</v>
+        <v>2.047123205883903</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45000</v>
       </c>
       <c r="B38">
-        <v>1.999845417631715</v>
+        <v>1.572666213758236</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45002</v>
       </c>
       <c r="B39">
-        <v>0.9998508448112988</v>
+        <v>1.366557396383112</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45004</v>
       </c>
       <c r="B40">
-        <v>0.9998383732718488</v>
+        <v>1.291856684522521</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45006</v>
       </c>
       <c r="B41">
-        <v>0.9998048825694259</v>
+        <v>1.42558450731445</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45007</v>
       </c>
       <c r="B42">
-        <v>0.9997714119880849</v>
+        <v>1.285998370133262</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45008</v>
       </c>
       <c r="B43">
-        <v>2.000062238551966</v>
+        <v>1.532180097364544</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45009</v>
       </c>
       <c r="B44">
-        <v>2.999968779838354</v>
+        <v>2.038273154957583</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45010</v>
       </c>
       <c r="B45">
-        <v>1.999820821273413</v>
+        <v>1.563816162831916</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45011</v>
       </c>
       <c r="B46">
-        <v>0.9998262484529965</v>
+        <v>1.357707345456793</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45012</v>
       </c>
       <c r="B47">
-        <v>0.9998137769135462</v>
+        <v>1.283006633596202</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45014</v>
       </c>
       <c r="B48">
-        <v>0.9997802862111236</v>
+        <v>1.41673445638813</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45018</v>
       </c>
       <c r="B49">
-        <v>0.9997468156297826</v>
+        <v>1.277148319206942</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45019</v>
       </c>
       <c r="B50">
-        <v>2.000037642193663</v>
+        <v>1.523330046438224</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45022</v>
       </c>
       <c r="B51">
-        <v>2.999944183480052</v>
+        <v>2.029423104031263</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45026</v>
       </c>
       <c r="B52">
-        <v>1.99979622491511</v>
+        <v>1.554966111905596</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45027</v>
       </c>
       <c r="B53">
-        <v>0.999801652094694</v>
+        <v>1.348857294530473</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45030</v>
       </c>
       <c r="B54">
-        <v>0.9997891805552439</v>
+        <v>1.274156582669882</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45031</v>
       </c>
       <c r="B55">
-        <v>0.999755689852821</v>
+        <v>1.40788440546181</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45032</v>
       </c>
       <c r="B56">
-        <v>0.9997222192714801</v>
+        <v>1.268298268280622</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45033</v>
       </c>
       <c r="B57">
-        <v>2.000013045835361</v>
+        <v>1.514479995511904</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45035</v>
       </c>
       <c r="B58">
-        <v>2.999919587121749</v>
+        <v>2.020573053104943</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45036</v>
       </c>
       <c r="B59">
-        <v>1.999771628556808</v>
+        <v>1.546116060979276</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45038</v>
       </c>
       <c r="B60">
-        <v>0.9997770557363916</v>
+        <v>1.340007243604153</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45039</v>
       </c>
       <c r="B61">
-        <v>0.9997645841969414</v>
+        <v>1.265306531743562</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45041</v>
       </c>
       <c r="B62">
-        <v>0.9997310934945187</v>
+        <v>1.39903435453549</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45044</v>
       </c>
       <c r="B63">
-        <v>0.9996976229131778</v>
+        <v>1.259448217354302</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45045</v>
       </c>
       <c r="B64">
-        <v>1.999988449477059</v>
+        <v>1.505629944585585</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45049</v>
       </c>
       <c r="B65">
-        <v>2.999894990763447</v>
+        <v>2.011723002178623</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45051</v>
       </c>
       <c r="B66">
-        <v>1.999747032198506</v>
+        <v>1.537266010052956</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45052</v>
       </c>
       <c r="B67">
-        <v>0.9997524593780891</v>
+        <v>1.331157192677833</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45053</v>
       </c>
       <c r="B68">
-        <v>0.999739987838639</v>
+        <v>1.256456480817242</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45054</v>
       </c>
       <c r="B69">
-        <v>0.9997064971362164</v>
+        <v>1.390184303609171</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45055</v>
       </c>
       <c r="B70">
-        <v>0.9996730265548752</v>
+        <v>1.250598166427983</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45056</v>
       </c>
       <c r="B71">
-        <v>1.999963853118756</v>
+        <v>1.496779893659265</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45057</v>
       </c>
       <c r="B72">
-        <v>2.999870394405145</v>
+        <v>2.002872951252304</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45058</v>
       </c>
       <c r="B73">
-        <v>1.999722435840203</v>
+        <v>1.528415959126636</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45059</v>
       </c>
       <c r="B74">
-        <v>0.9997278630197868</v>
+        <v>1.322307141751513</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45061</v>
       </c>
       <c r="B75">
-        <v>0.9997153914803367</v>
+        <v>1.247606429890922</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45063</v>
       </c>
       <c r="B76">
-        <v>0.9996819007779139</v>
+        <v>1.381334252682851</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45064</v>
       </c>
       <c r="B77">
-        <v>0.9996484301965729</v>
+        <v>1.241748115501663</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45066</v>
       </c>
       <c r="B78">
-        <v>1.999939256760454</v>
+        <v>1.487929842732945</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45068</v>
       </c>
       <c r="B79">
-        <v>2.999845798046842</v>
+        <v>1.994022900325984</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45070</v>
       </c>
       <c r="B80">
-        <v>1.999697839481901</v>
+        <v>1.519565908200317</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45071</v>
       </c>
       <c r="B81">
-        <v>0.9997032666614845</v>
+        <v>1.313457090825193</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45072</v>
       </c>
       <c r="B82">
-        <v>0.9996907951220342</v>
+        <v>1.238756378964602</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45073</v>
       </c>
       <c r="B83">
-        <v>0.9996573044196115</v>
+        <v>1.372484201756531</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45074</v>
       </c>
       <c r="B84">
-        <v>0.9996238338382706</v>
+        <v>1.232898064575343</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45075</v>
       </c>
       <c r="B85">
-        <v>1.999914660402151</v>
+        <v>1.479079791806625</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45078</v>
       </c>
       <c r="B86">
-        <v>2.999821201688539</v>
+        <v>1.985172849399664</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45079</v>
       </c>
       <c r="B87">
-        <v>1.999673243123599</v>
+        <v>1.510715857273997</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45080</v>
       </c>
       <c r="B88">
-        <v>0.9996786703031819</v>
+        <v>1.304607039898873</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45081</v>
       </c>
       <c r="B89">
-        <v>0.9996661987637319</v>
+        <v>1.229906328038282</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45083</v>
       </c>
       <c r="B90">
-        <v>0.999632708061309</v>
+        <v>1.363634150830211</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45084</v>
       </c>
       <c r="B91">
-        <v>0.999599237479968</v>
+        <v>1.224048013649023</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45085</v>
       </c>
       <c r="B92">
-        <v>1.999890064043849</v>
+        <v>1.470229740880305</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45086</v>
       </c>
       <c r="B93">
-        <v>2.999796605330237</v>
+        <v>1.976322798473344</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45087</v>
       </c>
       <c r="B94">
-        <v>1.999648646765296</v>
+        <v>1.501865806347677</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45089</v>
       </c>
       <c r="B95">
-        <v>0.9996540739448796</v>
+        <v>1.295756988972554</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45090</v>
       </c>
       <c r="B96">
-        <v>0.9996416024054293</v>
+        <v>1.221056277111963</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45092</v>
       </c>
       <c r="B97">
-        <v>0.9996081117030067</v>
+        <v>1.354784099903891</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45093</v>
       </c>
       <c r="B98">
-        <v>0.9995746411216657</v>
+        <v>1.215197962722703</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45094</v>
       </c>
       <c r="B99">
-        <v>1.999865467685547</v>
+        <v>1.461379689953985</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45095</v>
       </c>
       <c r="B100">
-        <v>2.999772008971934</v>
+        <v>1.967472747547024</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45096</v>
       </c>
       <c r="B101">
-        <v>1.999624050406994</v>
+        <v>1.493015755421357</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45097</v>
       </c>
       <c r="B102">
-        <v>0.9996294775865771</v>
+        <v>1.286906938046234</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45100</v>
       </c>
       <c r="B103">
-        <v>0.999617006047127</v>
+        <v>1.212206226185643</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45101</v>
       </c>
       <c r="B104">
-        <v>0.9995835153447044</v>
+        <v>1.345934048977571</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45102</v>
       </c>
       <c r="B105">
-        <v>0.9995500447633632</v>
+        <v>1.206347911796384</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45106</v>
       </c>
       <c r="B106">
-        <v>1.999840871327244</v>
+        <v>1.452529639027666</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45108</v>
       </c>
       <c r="B107">
-        <v>2.999747412613632</v>
+        <v>1.958622696620705</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45109</v>
       </c>
       <c r="B108">
-        <v>1.999599454048691</v>
+        <v>1.484165704495037</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45111</v>
       </c>
       <c r="B109">
-        <v>0.9996048812282747</v>
+        <v>1.278056887119914</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45112</v>
       </c>
       <c r="B110">
-        <v>0.9995924096888247</v>
+        <v>1.203356175259323</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45114</v>
       </c>
       <c r="B111">
-        <v>0.9995589189864018</v>
+        <v>1.337083998051252</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45115</v>
       </c>
       <c r="B112">
-        <v>0.9995254484050609</v>
+        <v>1.197497860870064</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45117</v>
       </c>
       <c r="B113">
-        <v>1.999816274968942</v>
+        <v>1.443679588101346</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45121</v>
       </c>
       <c r="B114">
-        <v>2.99972281625533</v>
+        <v>1.949772645694385</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45122</v>
       </c>
       <c r="B115">
-        <v>1.999574857690389</v>
+        <v>1.475315653568718</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45124</v>
       </c>
       <c r="B116">
-        <v>0.9995802848699724</v>
+        <v>1.269206836193594</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45130</v>
       </c>
       <c r="B117">
-        <v>0.9995678133305221</v>
+        <v>1.194506124333003</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45134</v>
       </c>
       <c r="B118">
-        <v>0.9995343226280995</v>
+        <v>1.328233947124932</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45136</v>
       </c>
       <c r="B119">
-        <v>0.9995008520467585</v>
+        <v>1.188647809943744</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45139</v>
       </c>
       <c r="B120">
-        <v>1.999791678610639</v>
+        <v>1.434829537175026</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45140</v>
       </c>
       <c r="B121">
-        <v>2.999698219897027</v>
+        <v>1.940922594768065</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45141</v>
       </c>
       <c r="B122">
-        <v>1.999550261332086</v>
+        <v>1.466465602642398</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45145</v>
       </c>
       <c r="B123">
-        <v>0.9995556885116699</v>
+        <v>1.260356785267274</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45146</v>
       </c>
       <c r="B124">
-        <v>0.9995432169722198</v>
+        <v>1.185656073406683</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45147</v>
       </c>
       <c r="B125">
-        <v>0.9995097262697972</v>
+        <v>1.319383896198612</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45148</v>
       </c>
       <c r="B126">
-        <v>0.999476255688456</v>
+        <v>1.179797759017424</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45150</v>
       </c>
       <c r="B127">
-        <v>1.999767082252337</v>
+        <v>1.425979486248706</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45151</v>
       </c>
       <c r="B128">
-        <v>2.999673623538725</v>
+        <v>1.932072543841745</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45152</v>
       </c>
       <c r="B129">
-        <v>1.999525664973784</v>
+        <v>1.457615551716078</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45155</v>
       </c>
       <c r="B130">
-        <v>0.9995310921533676</v>
+        <v>1.251506734340954</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45157</v>
       </c>
       <c r="B131">
-        <v>0.9995186206139173</v>
+        <v>1.176806022480364</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45159</v>
       </c>
       <c r="B132">
-        <v>0.9994851299114946</v>
+        <v>1.310533845272292</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45160</v>
       </c>
       <c r="B133">
-        <v>0.9994516593301537</v>
+        <v>1.170947708091104</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45161</v>
       </c>
       <c r="B134">
-        <v>1.999742485894034</v>
+        <v>1.417129435322386</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45163</v>
       </c>
       <c r="B135">
-        <v>2.999649027180423</v>
+        <v>1.923222492915425</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45164</v>
       </c>
       <c r="B136">
-        <v>1.999501068615482</v>
+        <v>1.448765500789758</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45166</v>
       </c>
       <c r="B137">
-        <v>0.999506495795065</v>
+        <v>1.242656683414634</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45167</v>
       </c>
       <c r="B138">
-        <v>0.999494024255615</v>
+        <v>1.167955971554044</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45170</v>
       </c>
       <c r="B139">
-        <v>0.9994605335531923</v>
+        <v>1.301683794345972</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45171</v>
       </c>
       <c r="B140">
-        <v>0.9994270629718511</v>
+        <v>1.162097657164784</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45172</v>
       </c>
       <c r="B141">
-        <v>1.999717889535732</v>
+        <v>1.408279384396066</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45173</v>
       </c>
       <c r="B142">
-        <v>2.99962443082212</v>
+        <v>1.914372441989105</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45176</v>
       </c>
       <c r="B143">
-        <v>1.999476472257179</v>
+        <v>1.439915449863438</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45177</v>
       </c>
       <c r="B144">
-        <v>0.9994818994367627</v>
+        <v>1.233806632488315</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45180</v>
       </c>
       <c r="B145">
-        <v>0.9994694278973126</v>
+        <v>1.159105920627724</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45181</v>
       </c>
       <c r="B146">
-        <v>0.9994359371948898</v>
+        <v>1.292833743419652</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45182</v>
       </c>
       <c r="B147">
-        <v>0.9994024666135488</v>
+        <v>1.153247606238465</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45185</v>
       </c>
       <c r="B148">
-        <v>1.99969329317743</v>
+        <v>1.399429333469747</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45186</v>
       </c>
       <c r="B149">
-        <v>2.999599834463818</v>
+        <v>1.905522391062786</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45189</v>
       </c>
       <c r="B150">
-        <v>1.999451875898877</v>
+        <v>1.431065398937118</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45190</v>
       </c>
       <c r="B151">
-        <v>0.9994573030784604</v>
+        <v>1.224956581561995</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45191</v>
       </c>
       <c r="B152">
-        <v>0.9994448315390101</v>
+        <v>1.150255869701404</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45192</v>
       </c>
       <c r="B153">
-        <v>0.9994113408365874</v>
+        <v>1.283983692493333</v>
       </c>
       <c r="C153">
         <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45193</v>
       </c>
       <c r="B154">
-        <v>0.9993778702552465</v>
+        <v>1.144397555312145</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45195</v>
       </c>
       <c r="B155">
-        <v>1.999668696819127</v>
+        <v>1.390579282543427</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45196</v>
       </c>
       <c r="B156">
-        <v>2.999575238105515</v>
+        <v>1.896672340136466</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45197</v>
       </c>
       <c r="B157">
-        <v>1.999427279540575</v>
+        <v>1.422215348010798</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45198</v>
       </c>
       <c r="B158">
-        <v>0.9994327067201578</v>
+        <v>1.216106530635675</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45200</v>
       </c>
       <c r="B159">
-        <v>0.9994202351807078</v>
+        <v>1.141405818775084</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45201</v>
       </c>
       <c r="B160">
-        <v>0.9993867444782851</v>
+        <v>1.275133641567013</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45202</v>
       </c>
       <c r="B161">
-        <v>0.9993532738969439</v>
+        <v>1.135547504385825</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45203</v>
       </c>
       <c r="B162">
-        <v>1.999644100460825</v>
+        <v>1.381729231617107</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45204</v>
       </c>
       <c r="B163">
-        <v>2.999550641747213</v>
+        <v>1.887822289210146</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45205</v>
       </c>
       <c r="B164">
-        <v>1.999402683182272</v>
+        <v>1.413365297084479</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45207</v>
       </c>
       <c r="B165">
-        <v>0.9994081103618555</v>
+        <v>1.207256479709355</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45209</v>
       </c>
       <c r="B166">
-        <v>0.9993956388224052</v>
+        <v>1.132555767848765</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45211</v>
       </c>
       <c r="B167">
-        <v>0.9993621481199826</v>
+        <v>1.266283590640693</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45212</v>
       </c>
       <c r="B168">
-        <v>0.9993286775386416</v>
+        <v>1.126697453459505</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45214</v>
       </c>
       <c r="B169">
-        <v>1.999619504102522</v>
+        <v>1.372879180690787</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45215</v>
       </c>
       <c r="B170">
-        <v>2.999526045388911</v>
+        <v>1.878972238283826</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45217</v>
       </c>
       <c r="B171">
-        <v>1.999378086823969</v>
+        <v>1.404515246158159</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45218</v>
       </c>
       <c r="B172">
-        <v>0.999383514003553</v>
+        <v>1.198406428783035</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45219</v>
       </c>
       <c r="B173">
-        <v>0.9993710424641029</v>
+        <v>1.123705716922445</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45220</v>
       </c>
       <c r="B174">
-        <v>0.9993375517616803</v>
+        <v>1.257433539714373</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45221</v>
       </c>
       <c r="B175">
-        <v>0.9993040811803391</v>
+        <v>1.117847402533185</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45222</v>
       </c>
       <c r="B176">
-        <v>1.99959490774422</v>
+        <v>1.364029129764467</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45223</v>
       </c>
       <c r="B177">
-        <v>2.999501449030608</v>
+        <v>1.870122187357506</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45227</v>
       </c>
       <c r="B178">
-        <v>1.999353490465667</v>
+        <v>1.395665195231839</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45229</v>
       </c>
       <c r="B179">
-        <v>0.9993589176452506</v>
+        <v>1.189556377856716</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45232</v>
       </c>
       <c r="B180">
-        <v>0.9993464461058006</v>
+        <v>1.114855665996125</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45235</v>
       </c>
       <c r="B181">
-        <v>0.9993129554033777</v>
+        <v>1.248583488788053</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45237</v>
       </c>
       <c r="B182">
-        <v>0.9992794848220368</v>
+        <v>1.108997351606865</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45242</v>
       </c>
       <c r="B183">
-        <v>1.999570311385918</v>
+        <v>1.355179078838147</v>
       </c>
       <c r="C183">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45243</v>
       </c>
       <c r="B184">
-        <v>2.999476852672306</v>
+        <v>1.861272136431186</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45245</v>
       </c>
       <c r="B185">
-        <v>1.999328894107365</v>
+        <v>1.386815144305519</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45246</v>
       </c>
       <c r="B186">
-        <v>0.9993343212869483</v>
+        <v>1.180706326930396</v>
       </c>
       <c r="C186">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45247</v>
       </c>
       <c r="B187">
-        <v>0.999321849747498</v>
+        <v>1.106005615069805</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45248</v>
       </c>
       <c r="B188">
-        <v>0.9992883590450754</v>
+        <v>1.239733437861733</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45249</v>
       </c>
       <c r="B189">
-        <v>0.9992548884637344</v>
+        <v>1.100147300680546</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45250</v>
       </c>
       <c r="B190">
-        <v>1.999545715027615</v>
+        <v>1.346329027911827</v>
       </c>
       <c r="C190">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45251</v>
       </c>
       <c r="B191">
-        <v>2.999452256314004</v>
+        <v>1.852422085504867</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45254</v>
       </c>
       <c r="B192">
-        <v>1.999304297749062</v>
+        <v>1.377965093379199</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45255</v>
       </c>
       <c r="B193">
-        <v>0.9993097249286458</v>
+        <v>1.171856276004076</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45256</v>
       </c>
       <c r="B194">
-        <v>0.9992972533891957</v>
+        <v>1.097155564143485</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45257</v>
       </c>
       <c r="B195">
-        <v>0.9992637626867731</v>
+        <v>1.230883386935413</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45258</v>
       </c>
       <c r="B196">
-        <v>0.9992302921054319</v>
+        <v>1.091297249754226</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45261</v>
       </c>
       <c r="B197">
-        <v>1.999521118669313</v>
+        <v>1.337478976985508</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45263</v>
       </c>
       <c r="B198">
-        <v>2.999427659955701</v>
+        <v>1.843572034578547</v>
       </c>
       <c r="C198">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45264</v>
       </c>
       <c r="B199">
-        <v>1.99927970139076</v>
+        <v>1.36911504245288</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45266</v>
       </c>
       <c r="B200">
-        <v>0.9992851285703435</v>
+        <v>1.163006225077756</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45267</v>
       </c>
       <c r="B201">
-        <v>0.9992726570308932</v>
+        <v>1.088305513217165</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45269</v>
       </c>
       <c r="B202">
-        <v>0.9992391663284705</v>
+        <v>1.222033336009094</v>
       </c>
       <c r="C202">
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45271</v>
       </c>
       <c r="B203">
-        <v>0.9992056957471296</v>
+        <v>1.082447198827906</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45273</v>
       </c>
       <c r="B204">
-        <v>1.99949652231101</v>
+        <v>1.328628926059188</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45274</v>
       </c>
       <c r="B205">
-        <v>2.999403063597398</v>
+        <v>1.834721983652227</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45275</v>
       </c>
       <c r="B206">
-        <v>1.999255105032458</v>
+        <v>1.36026499152656</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45277</v>
       </c>
       <c r="B207">
-        <v>0.9992605322120409</v>
+        <v>1.154156174151436</v>
       </c>
       <c r="C207">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45279</v>
       </c>
       <c r="B208">
-        <v>0.9992480606725909</v>
+        <v>1.079455462290845</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45280</v>
       </c>
       <c r="B209">
-        <v>0.9992145699701682</v>
+        <v>1.213183285082774</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45282</v>
       </c>
       <c r="B210">
-        <v>0.999181099388827</v>
+        <v>1.073597147901586</v>
       </c>
       <c r="C210">
         <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45284</v>
       </c>
       <c r="B211">
-        <v>1.999471925952708</v>
+        <v>1.319778875132868</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45286</v>
       </c>
       <c r="B212">
-        <v>2.999378467239096</v>
+        <v>1.825871932725907</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45288</v>
       </c>
       <c r="B213">
-        <v>1.999230508674155</v>
+        <v>1.35141494060024</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45289</v>
       </c>
       <c r="B214">
-        <v>0.9992359358537386</v>
+        <v>1.145306123225116</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45290</v>
       </c>
       <c r="B215">
-        <v>0.9992234643142885</v>
+        <v>1.070605411364526</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45296</v>
       </c>
       <c r="B216">
-        <v>0.9991899736118657</v>
+        <v>1.204333234156454</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45297</v>
       </c>
       <c r="B217">
-        <v>0.9991565030305247</v>
+        <v>1.064747096975266</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45298</v>
       </c>
       <c r="B218">
-        <v>1.999447329594406</v>
+        <v>1.310928824206548</v>
       </c>
       <c r="C218">
         <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45301</v>
       </c>
       <c r="B219">
-        <v>2.999353870880793</v>
+        <v>1.817021881799587</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45302</v>
       </c>
       <c r="B220">
-        <v>1.999205912315853</v>
+        <v>1.34256488967392</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45303</v>
       </c>
       <c r="B221">
-        <v>0.9992113394954363</v>
+        <v>1.136456072298797</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45305</v>
       </c>
       <c r="B222">
-        <v>0.999198867955986</v>
+        <v>1.061755360438206</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>45306</v>
       </c>
       <c r="B223">
-        <v>0.9991653772535634</v>
+        <v>1.195483183230134</v>
       </c>
       <c r="C223">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>45310</v>
       </c>
       <c r="B224">
-        <v>0.9991319066722224</v>
+        <v>1.055897046048946</v>
       </c>
       <c r="C224">
         <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>45312</v>
       </c>
       <c r="B225">
-        <v>1.999422733236103</v>
+        <v>1.302078773280228</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>45313</v>
       </c>
       <c r="B226">
-        <v>2.999329274522491</v>
+        <v>1.808171830873267</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>45315</v>
       </c>
       <c r="B227">
-        <v>1.99918131595755</v>
+        <v>1.3337148387476</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>45316</v>
       </c>
       <c r="B228">
-        <v>0.9991867431371337</v>
+        <v>1.127606021372477</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>45317</v>
       </c>
       <c r="B229">
-        <v>0.9991742715976837</v>
+        <v>1.052905309511886</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>45323</v>
       </c>
       <c r="B230">
-        <v>0.999140780895261</v>
+        <v>1.186633132303814</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>45324</v>
       </c>
       <c r="B231">
-        <v>0.9991073103139199</v>
+        <v>1.047046995122626</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>45325</v>
       </c>
       <c r="B232">
-        <v>1.999398136877801</v>
+        <v>1.293228722353909</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>45328</v>
       </c>
       <c r="B233">
-        <v>2.999304678164189</v>
+        <v>1.799321779946948</v>
       </c>
       <c r="C233">
         <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>45329</v>
       </c>
       <c r="B234">
-        <v>1.999156719599248</v>
+        <v>1.32486478782128</v>
       </c>
       <c r="C234">
         <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>45332</v>
       </c>
       <c r="B235">
-        <v>0.9991621467788314</v>
+        <v>1.118755970446157</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2">
+        <v>45333</v>
       </c>
       <c r="B236">
-        <v>0.9991496752393811</v>
+        <v>1.044055258585566</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
+      <c r="A237" s="2">
+        <v>45335</v>
       </c>
       <c r="B237">
-        <v>0.9991161845369585</v>
+        <v>1.177783081377495</v>
       </c>
       <c r="C237">
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
+      <c r="A238" s="2">
+        <v>45336</v>
       </c>
       <c r="B238">
-        <v>0.9990827139556175</v>
+        <v>1.038196944196307</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
+      <c r="A239" s="2">
+        <v>45337</v>
       </c>
       <c r="B239">
-        <v>1.999373540519498</v>
+        <v>1.284378671427589</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
+      <c r="A240" s="2">
+        <v>45338</v>
       </c>
       <c r="B240">
-        <v>2.999280081805886</v>
+        <v>1.790471729020628</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
+      <c r="A241" s="2">
+        <v>45342</v>
       </c>
       <c r="B241">
-        <v>1.999132123240945</v>
+        <v>1.316014736894961</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
+      <c r="A242" s="2">
+        <v>45344</v>
       </c>
       <c r="B242">
-        <v>0.9991375504205289</v>
+        <v>1.109905919519837</v>
       </c>
       <c r="C242">
         <v>1</v>
